--- a/code/outputs/devices/192_168_0_252/deviceInfo.xlsx
+++ b/code/outputs/devices/192_168_0_252/deviceInfo.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="macTable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="arpTable" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interfaces" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interfacesCounter" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +416,2536 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>mac</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>vlan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>static</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>authen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>moves</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>last_move</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B4:2E:99:FC:17:D1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GE0/0/24</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E4:5F:01:5E:0E:40</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GE0/0/24</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E8:65:D4:1F:4A:10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GE0/0/24</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC:AD:B8:83:D3:1A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GE0/0/24</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mac</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GE0/0/24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>b4:2e:99:fc:17:d1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>is_enabled</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_up</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>last_flapped</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>mac_address</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch Port, Link-type : access(negotiated), </t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NULL0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Route Port,The Maximum Transmit Unit is 1500</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vlanif1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Route Port,The Maximum Transmit Unit is 1500</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>68:8F:84:04:B2:C8</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>interfacesCounter</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tx_errors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rx_errors</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tx_discards</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>rx_discards</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>tx_octets</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>rx_octets</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>tx_unicast_packets</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rx_unicast_packets</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>tx_multicast_packets</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>rx_multicast_packets</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>tx_broadcast_packets</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>rx_broadcast_packets</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9134041</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17773634</v>
+      </c>
+      <c r="H25" t="n">
+        <v>26100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>22004</v>
+      </c>
+      <c r="J25" t="n">
+        <v>21206</v>
+      </c>
+      <c r="K25" t="n">
+        <v>24462</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NULL0</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vlanif1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>